--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T18:26:21+00:00</t>
+    <t>2025-12-03T15:31:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-03T15:31:39+00:00</t>
+    <t>2025-12-05T10:54:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T10:54:45+00:00</t>
+    <t>2025-12-08T08:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T08:28:39+00:00</t>
+    <t>2025-12-10T16:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-10T16:53:25+00:00</t>
+    <t>2025-12-15T10:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:12:23+00:00</t>
+    <t>2025-12-15T10:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-15T10:59:45+00:00</t>
+    <t>2026-01-07T21:19:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T21:19:48+00:00</t>
+    <t>2026-01-09T15:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:13:58+00:00</t>
+    <t>2026-01-09T15:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
+++ b/main/ig/StructureDefinition-fr-lm-statut-clinique-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="89">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T15:21:06+00:00</t>
+    <t>2026-01-16T13:49:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Entrée Statut clinique du patient</t>
+    <t>Statut clinique du patient</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -284,9 +284,6 @@
   </si>
   <si>
     <t>fr-lm-statut-clinique-patient.statutCliniquePatient</t>
-  </si>
-  <si>
-    <t>Statut clinique du patient</t>
   </si>
 </sst>
 </file>
@@ -1178,10 +1175,10 @@
         <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
